--- a/ResultadoEleicoesDistritos/VIANA DO CASTELO_MONÇÃO.xlsx
+++ b/ResultadoEleicoesDistritos/VIANA DO CASTELO_MONÇÃO.xlsx
@@ -597,64 +597,64 @@
         <v>5651</v>
       </c>
       <c r="H2" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I2" t="n">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="J2" t="n">
-        <v>2306</v>
+        <v>2269</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="S2" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="T2" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="U2" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="V2" t="n">
-        <v>3741</v>
+        <v>3746</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>3575</v>
+        <v>3657</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
